--- a/docs/odh/shr-core-Resource-model.xlsx
+++ b/docs/odh/shr-core-Resource-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>A human language, spoken or written.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
   </si>
   <si>
     <t>shr-core-Resource-model.implicitRules</t>
@@ -320,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -354,7 +350,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -732,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -787,13 +783,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -844,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
